--- a/l555555/Results.xlsx
+++ b/l555555/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>№</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Количество баллов</t>
+  </si>
+  <si>
+    <t>Жанжак</t>
   </si>
   <si>
     <t>Андрей</t>
@@ -71,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,7 +99,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="3">
@@ -107,6 +110,17 @@
         <v>4</v>
       </c>
       <c r="C3" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n" s="0">
         <v>21.0</v>
       </c>
     </row>

--- a/l555555/Results.xlsx
+++ b/l555555/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
@@ -21,6 +21,18 @@
   </si>
   <si>
     <t>Количество баллов</t>
+  </si>
+  <si>
+    <t>Герой</t>
+  </si>
+  <si>
+    <t>Аморим</t>
+  </si>
+  <si>
+    <t>Ivanish</t>
+  </si>
+  <si>
+    <t>Ой</t>
   </si>
   <si>
     <t>Жанжак</t>
@@ -74,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,7 +111,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>36.0</v>
+        <v>282.0</v>
       </c>
     </row>
     <row r="3">
@@ -110,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>26.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="4">
@@ -121,6 +133,50 @@
         <v>5</v>
       </c>
       <c r="C4" t="n" s="0">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n" s="0">
         <v>21.0</v>
       </c>
     </row>
